--- a/biology/Botanique/Xerocomus/Xerocomus.xlsx
+++ b/biology/Botanique/Xerocomus/Xerocomus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Xerocomus est un ancien genre de champignons de la famille des bolétacées.
 Il regroupait des bolets à chapeau sec et à pores jaunes, moins trapus et de plus petite taille que les cèpes. Souvent issus du genre Boletus, ils y sont pour la plupart retournés ou ont rejoint de nouveaux genres.
@@ -512,7 +524,9 @@
           <t>Liste des espèces du genre Xerocomus</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve"> Xerocomus chrysonemus
  Xerocomus griseo-olivaceus
@@ -557,7 +571,9 @@
           <t>Anciens taxons</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les principaux représentants de ce groupe étaient :
 le bolet bai (Xerocomus badius, maintenant Imleria badia)
